--- a/STM32F103ZE_Contrl/io.xlsx
+++ b/STM32F103ZE_Contrl/io.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\天职师大\IMR\STM32F103ZE_Contrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4330DA-D2EA-4F8F-BE8A-24E6EA167DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187663A-1F3E-4237-BABA-6D7C1A617AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
